--- a/StructureDefinition-ext-R5-AuditEvent.source.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.source.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -343,7 +343,8 @@
     <t>Logical source location within the healthcare enterprise network.  For example, a hospital or other provider location within a multi-entity provider group.</t>
   </si>
   <si>
-    <t>This value differentiates among the sites in a multi-site enterprise health information system. Element `AuditEvent.source.site` is mapped to FHIR R4 element `AuditEvent.source.site`.</t>
+    <t>This value differentiates among the sites in a multi-site enterprise health information system. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.source.site` is mapped to FHIR R4 element `AuditEvent.source.site`.</t>
   </si>
   <si>
     <t>Extension.extension:site.id</t>
@@ -425,7 +426,8 @@
     <t>Identifier of the source where the event was detected.</t>
   </si>
   <si>
-    <t>This field ties the event to a specific source system. It may be used to group events for analysis according to where the event was detected. Element `AuditEvent.source.observer` is mapped to FHIR R4 element `AuditEvent.source.observer`.</t>
+    <t>This field ties the event to a specific source system. It may be used to group events for analysis according to where the event was detected. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.observer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.source.observer` is mapped to FHIR R4 element `AuditEvent.source.observer`.</t>
   </si>
   <si>
     <t>Extension.extension:observer.id</t>
@@ -831,7 +833,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="236.2265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-AuditEvent.source.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.source.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `AuditEvent.source` 1..1 `BackboneElement`
 *  R4: `AuditEvent.source` 1..1 `BackboneElement`
 Following are the generation technical comments:
-Element `AuditEvent.source` is mapped to FHIR R4 element `AuditEvent.source`.</t>
+Element `AuditEvent.source` has is mapped to FHIR R4 element `AuditEvent.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -343,8 +343,9 @@
     <t>Logical source location within the healthcare enterprise network.  For example, a hospital or other provider location within a multi-entity provider group.</t>
   </si>
   <si>
-    <t>This value differentiates among the sites in a multi-site enterprise health information system. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.source.site` is mapped to FHIR R4 element `AuditEvent.source.site`.</t>
+    <t>This value differentiates among the sites in a multi-site enterprise health information system. Element `AuditEvent.source.site` is part of an existing definition because parent element `AuditEvent.source` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.source.site` has is mapped to FHIR R4 element `AuditEvent.source.site`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:site.id</t>
@@ -391,6 +392,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source.site</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,8 +430,9 @@
     <t>Identifier of the source where the event was detected.</t>
   </si>
   <si>
-    <t>This field ties the event to a specific source system. It may be used to group events for analysis according to where the event was detected. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.observer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.source.observer` is mapped to FHIR R4 element `AuditEvent.source.observer`.</t>
+    <t>This field ties the event to a specific source system. It may be used to group events for analysis according to where the event was detected. Element `AuditEvent.source.observer` is part of an existing definition because parent element `AuditEvent.source` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.observer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.source.observer` has is mapped to FHIR R4 element `AuditEvent.source.observer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:observer.id</t>
@@ -437,6 +442,9 @@
   </si>
   <si>
     <t>Extension.extension:observer.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source.observer</t>
   </si>
   <si>
     <t>Extension.extension:observer.value[x]</t>
@@ -458,7 +466,8 @@
     <t>Code specifying the type of source where event originated.</t>
   </si>
   <si>
-    <t>This field indicates which type of source is identified by the Audit Source ID. It is an optional value that may be used to group events for analysis according to the type of source where the event occurred. Element `AuditEvent.source.type` is mapped to FHIR R4 element `AuditEvent.source.type`.</t>
+    <t>This field indicates which type of source is identified by the Audit Source ID. It is an optional value that may be used to group events for analysis according to the type of source where the event occurred. Element `AuditEvent.source.type` is part of an existing definition because parent element `AuditEvent.source` requires a cross-version extension.
+Element `AuditEvent.source.type` has is mapped to FHIR R4 element `AuditEvent.source.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -468,6 +477,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -1641,7 +1653,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1683,7 +1695,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1698,15 +1710,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1729,7 +1741,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1786,7 +1798,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>83</v>
@@ -1798,21 +1810,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1837,14 +1849,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1913,7 +1925,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2016,7 +2028,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2121,7 +2133,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2164,7 +2176,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2206,7 +2218,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2221,15 +2233,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2252,13 +2264,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2309,7 +2321,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
@@ -2321,21 +2333,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2360,14 +2372,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2436,7 +2448,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2539,7 +2551,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2644,7 +2656,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2687,7 +2699,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2729,7 +2741,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -2744,15 +2756,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2775,13 +2787,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2808,13 +2820,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2832,7 +2844,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -2844,18 +2856,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2937,7 +2949,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -2952,15 +2964,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2983,13 +2995,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3040,7 +3052,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>83</v>
@@ -3052,10 +3064,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-AuditEvent.source.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.source.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,7 +407,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -450,7 +450,7 @@
     <t>Extension.extension:observer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -487,15 +487,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Code specifying the type of system that detected and recorded the event. Use of these codes is not required but is encouraged to maintain translation with DICOM AuditMessage schema.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-security-source-type-for-R4-audit-source-type</t>
   </si>
   <si>
     <t>base64Binary
@@ -855,8 +846,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="150.52734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2820,13 +2811,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2995,13 +2986,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>

--- a/StructureDefinition-ext-R5-AuditEvent.source.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.source.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `AuditEvent.source` 1..1 `BackboneElement`
 *  R4: `AuditEvent.source` 1..1 `BackboneElement`
 Following are the generation technical comments:
-Element `AuditEvent.source` has is mapped to FHIR R4 element `AuditEvent.source`, but has no comparisons.</t>
+Element `AuditEvent.source` is mapped to FHIR R4 element `AuditEvent.source` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -343,9 +343,8 @@
     <t>Logical source location within the healthcare enterprise network.  For example, a hospital or other provider location within a multi-entity provider group.</t>
   </si>
   <si>
-    <t>This value differentiates among the sites in a multi-site enterprise health information system. Element `AuditEvent.source.site` is part of an existing definition because parent element `AuditEvent.source` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.source.site` has is mapped to FHIR R4 element `AuditEvent.source.site`, but has no comparisons.</t>
+    <t>This value differentiates among the sites in a multi-site enterprise health information system. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.site` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.source.site` is mapped to FHIR R4 element `AuditEvent.source.site` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:site.id</t>
@@ -392,9 +391,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source.site</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -407,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -430,9 +426,8 @@
     <t>Identifier of the source where the event was detected.</t>
   </si>
   <si>
-    <t>This field ties the event to a specific source system. It may be used to group events for analysis according to where the event was detected. Element `AuditEvent.source.observer` is part of an existing definition because parent element `AuditEvent.source` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.observer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.source.observer` has is mapped to FHIR R4 element `AuditEvent.source.observer`, but has no comparisons.</t>
+    <t>This field ties the event to a specific source system. It may be used to group events for analysis according to where the event was detected. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.source.observer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.source.observer` is mapped to FHIR R4 element `AuditEvent.source.observer` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:observer.id</t>
@@ -444,13 +439,10 @@
     <t>Extension.extension:observer.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source.observer</t>
-  </si>
-  <si>
     <t>Extension.extension:observer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -466,8 +458,7 @@
     <t>Code specifying the type of source where event originated.</t>
   </si>
   <si>
-    <t>This field indicates which type of source is identified by the Audit Source ID. It is an optional value that may be used to group events for analysis according to the type of source where the event occurred. Element `AuditEvent.source.type` is part of an existing definition because parent element `AuditEvent.source` requires a cross-version extension.
-Element `AuditEvent.source.type` has is mapped to FHIR R4 element `AuditEvent.source.type`, but has no comparisons.</t>
+    <t>This field indicates which type of source is identified by the Audit Source ID. It is an optional value that may be used to group events for analysis according to the type of source where the event occurred. Element `AuditEvent.source.type` is mapped to FHIR R4 element `AuditEvent.source.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -477,9 +468,6 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -487,6 +475,15 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Code specifying the type of system that detected and recorded the event. Use of these codes is not required but is encouraged to maintain translation with DICOM AuditMessage schema.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>base64Binary
@@ -846,8 +843,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="150.52734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.34375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1644,72 +1641,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1732,7 +1729,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1789,7 +1786,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>83</v>
@@ -1801,21 +1798,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1840,14 +1837,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1916,7 +1913,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2019,7 +2016,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2167,7 +2164,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2209,30 +2206,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2255,13 +2252,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2312,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
@@ -2324,21 +2321,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2363,14 +2360,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2690,7 +2687,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2732,30 +2729,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2778,13 +2775,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2811,13 +2808,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2835,7 +2832,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -2847,18 +2844,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2940,30 +2937,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3043,7 +3040,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>83</v>
@@ -3055,10 +3052,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
